--- a/Code/Results/Cases/Case_2_206/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_206/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9890398387423274</v>
+        <v>1.022286283269705</v>
       </c>
       <c r="D2">
-        <v>1.008974957015197</v>
+        <v>1.027019936693963</v>
       </c>
       <c r="E2">
-        <v>1.00047235929114</v>
+        <v>1.047095805259104</v>
       </c>
       <c r="F2">
-        <v>1.002614220874949</v>
+        <v>1.051020231627633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038462991790702</v>
+        <v>1.028335497973462</v>
       </c>
       <c r="J2">
-        <v>1.011553382235271</v>
+        <v>1.027472974458237</v>
       </c>
       <c r="K2">
-        <v>1.020310656602164</v>
+        <v>1.029840884956849</v>
       </c>
       <c r="L2">
-        <v>1.011925117318532</v>
+        <v>1.04985940014644</v>
       </c>
       <c r="M2">
-        <v>1.014037255201529</v>
+        <v>1.053772892728296</v>
       </c>
       <c r="N2">
-        <v>1.012989904064828</v>
+        <v>1.028932103934765</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.993755550143698</v>
+        <v>1.023260816035162</v>
       </c>
       <c r="D3">
-        <v>1.012329249437677</v>
+        <v>1.027724678571712</v>
       </c>
       <c r="E3">
-        <v>1.006241988421584</v>
+        <v>1.048387890737887</v>
       </c>
       <c r="F3">
-        <v>1.008727227873971</v>
+        <v>1.052390017255731</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039404418128609</v>
+        <v>1.028460813560444</v>
       </c>
       <c r="J3">
-        <v>1.014417904882861</v>
+        <v>1.028085360982689</v>
       </c>
       <c r="K3">
-        <v>1.022806768764963</v>
+        <v>1.030353542333091</v>
       </c>
       <c r="L3">
-        <v>1.016795620015597</v>
+        <v>1.05096201487684</v>
       </c>
       <c r="M3">
-        <v>1.019249646863646</v>
+        <v>1.054953807404114</v>
       </c>
       <c r="N3">
-        <v>1.015858494663155</v>
+        <v>1.029545360118324</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.996737875545386</v>
+        <v>1.023891330244021</v>
       </c>
       <c r="D4">
-        <v>1.014451978392763</v>
+        <v>1.028180371058632</v>
       </c>
       <c r="E4">
-        <v>1.009894323293211</v>
+        <v>1.049224590461323</v>
       </c>
       <c r="F4">
-        <v>1.012596665157735</v>
+        <v>1.053277048115614</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039987944177455</v>
+        <v>1.028540392876332</v>
       </c>
       <c r="J4">
-        <v>1.016225396505382</v>
+        <v>1.028480968289222</v>
       </c>
       <c r="K4">
-        <v>1.024379054553264</v>
+        <v>1.030684272980284</v>
       </c>
       <c r="L4">
-        <v>1.019874781447312</v>
+        <v>1.051675565217991</v>
       </c>
       <c r="M4">
-        <v>1.022545400113654</v>
+        <v>1.055718092020004</v>
       </c>
       <c r="N4">
-        <v>1.017668553131102</v>
+        <v>1.029941529232608</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9979757515710471</v>
+        <v>1.0241563807752</v>
       </c>
       <c r="D5">
-        <v>1.015333327357079</v>
+        <v>1.028371866119829</v>
       </c>
       <c r="E5">
-        <v>1.011411265058486</v>
+        <v>1.049576492789192</v>
       </c>
       <c r="F5">
-        <v>1.014203714400133</v>
+        <v>1.053650122639757</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040227256725788</v>
+        <v>1.028573486607616</v>
       </c>
       <c r="J5">
-        <v>1.01697461976934</v>
+        <v>1.028647126295204</v>
       </c>
       <c r="K5">
-        <v>1.025030098428154</v>
+        <v>1.03082307392949</v>
       </c>
       <c r="L5">
-        <v>1.021152693519624</v>
+        <v>1.051975563811129</v>
       </c>
       <c r="M5">
-        <v>1.023913303802074</v>
+        <v>1.056039435805985</v>
       </c>
       <c r="N5">
-        <v>1.018418840378032</v>
+        <v>1.030107923202018</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9981826822752575</v>
+        <v>1.024200882890864</v>
       </c>
       <c r="D6">
-        <v>1.015480672579184</v>
+        <v>1.028404014381753</v>
       </c>
       <c r="E6">
-        <v>1.011664906331264</v>
+        <v>1.049635587812918</v>
       </c>
       <c r="F6">
-        <v>1.014472418493531</v>
+        <v>1.053712773332035</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040267090220531</v>
+        <v>1.028579021987506</v>
       </c>
       <c r="J6">
-        <v>1.017099803915984</v>
+        <v>1.028675015841345</v>
       </c>
       <c r="K6">
-        <v>1.025138837252705</v>
+        <v>1.030846365236</v>
       </c>
       <c r="L6">
-        <v>1.021366310300317</v>
+        <v>1.052025936236587</v>
       </c>
       <c r="M6">
-        <v>1.024141969477919</v>
+        <v>1.056093393150775</v>
       </c>
       <c r="N6">
-        <v>1.018544202300523</v>
+        <v>1.030135852354514</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9967544777379586</v>
+        <v>1.023894871931527</v>
       </c>
       <c r="D7">
-        <v>1.014463797938898</v>
+        <v>1.028182930132784</v>
       </c>
       <c r="E7">
-        <v>1.00991466429523</v>
+        <v>1.04922929199078</v>
       </c>
       <c r="F7">
-        <v>1.012618214677113</v>
+        <v>1.053282032497876</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039991165291333</v>
+        <v>1.02854083649692</v>
       </c>
       <c r="J7">
-        <v>1.016235449011862</v>
+        <v>1.028483189111185</v>
       </c>
       <c r="K7">
-        <v>1.024387792503916</v>
+        <v>1.030686128582023</v>
       </c>
       <c r="L7">
-        <v>1.019891921097683</v>
+        <v>1.051679573725171</v>
       </c>
       <c r="M7">
-        <v>1.022563746357165</v>
+        <v>1.055722385677859</v>
       </c>
       <c r="N7">
-        <v>1.017678619913293</v>
+        <v>1.029943753208394</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9906482301100544</v>
+        <v>1.022615646426624</v>
       </c>
       <c r="D8">
-        <v>1.010118671957137</v>
+        <v>1.027258173822297</v>
       </c>
       <c r="E8">
-        <v>1.002439559201449</v>
+        <v>1.047532341507748</v>
       </c>
       <c r="F8">
-        <v>1.00469855442688</v>
+        <v>1.051483015879425</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038786544898592</v>
+        <v>1.028378161054483</v>
       </c>
       <c r="J8">
-        <v>1.012531229516906</v>
+        <v>1.02768006732399</v>
       </c>
       <c r="K8">
-        <v>1.021163301892928</v>
+        <v>1.030014345216514</v>
       </c>
       <c r="L8">
-        <v>1.01358658620248</v>
+        <v>1.050232017409247</v>
       </c>
       <c r="M8">
-        <v>1.015815254742253</v>
+        <v>1.054171957537409</v>
       </c>
       <c r="N8">
-        <v>1.013969140001776</v>
+        <v>1.029139490896141</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9793286579481034</v>
+        <v>1.02036092330407</v>
       </c>
       <c r="D9">
-        <v>1.00207833207531</v>
+        <v>1.025626199846617</v>
       </c>
       <c r="E9">
-        <v>0.9886039480200364</v>
+        <v>1.044546865271486</v>
       </c>
       <c r="F9">
-        <v>0.9900379503535393</v>
+        <v>1.048318095975707</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036460899239564</v>
+        <v>1.028079969387427</v>
       </c>
       <c r="J9">
-        <v>1.005633102549071</v>
+        <v>1.026259913415641</v>
       </c>
       <c r="K9">
-        <v>1.015137779548803</v>
+        <v>1.028822993849234</v>
       </c>
       <c r="L9">
-        <v>1.001884664402847</v>
+        <v>1.047681811851747</v>
       </c>
       <c r="M9">
-        <v>1.003294749484526</v>
+        <v>1.051441007289564</v>
       </c>
       <c r="N9">
-        <v>1.00706121690242</v>
+        <v>1.027717320206349</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9713597137295591</v>
+        <v>1.01885739159081</v>
       </c>
       <c r="D10">
-        <v>0.996432780660555</v>
+        <v>1.02453662630092</v>
       </c>
       <c r="E10">
-        <v>0.9788685026363363</v>
+        <v>1.042559627613019</v>
       </c>
       <c r="F10">
-        <v>0.9797204415724333</v>
+        <v>1.046211500115966</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034764058448944</v>
+        <v>1.027873437265552</v>
       </c>
       <c r="J10">
-        <v>1.000757606893681</v>
+        <v>1.025309827006338</v>
       </c>
       <c r="K10">
-        <v>1.010866742443589</v>
+        <v>1.02802368843607</v>
       </c>
       <c r="L10">
-        <v>0.9936300703514144</v>
+        <v>1.04598195196852</v>
       </c>
       <c r="M10">
-        <v>0.9944657644917902</v>
+        <v>1.049621006598129</v>
       </c>
       <c r="N10">
-        <v>1.002178797483972</v>
+        <v>1.026765884565368</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9677974025523238</v>
+        <v>1.018206253128339</v>
       </c>
       <c r="D11">
-        <v>0.9939137814365508</v>
+        <v>1.02406446078173</v>
       </c>
       <c r="E11">
-        <v>0.9745152041062548</v>
+        <v>1.041699833800765</v>
       </c>
       <c r="F11">
-        <v>0.9751064757456229</v>
+        <v>1.045300086051041</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033992115052023</v>
+        <v>1.027782175051219</v>
       </c>
       <c r="J11">
-        <v>0.9985740422810151</v>
+        <v>1.024897644028609</v>
       </c>
       <c r="K11">
-        <v>1.008951394943668</v>
+        <v>1.027676382752925</v>
       </c>
       <c r="L11">
-        <v>0.9899342792211593</v>
+        <v>1.045245934945507</v>
       </c>
       <c r="M11">
-        <v>0.990513628598247</v>
+        <v>1.048833051614521</v>
       </c>
       <c r="N11">
-        <v>0.9999921319590979</v>
+        <v>1.026353116240532</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9664563471625179</v>
+        <v>1.017964376120332</v>
       </c>
       <c r="D12">
-        <v>0.9929663000100442</v>
+        <v>1.02388902211892</v>
       </c>
       <c r="E12">
-        <v>0.9728759465342267</v>
+        <v>1.041380569717146</v>
       </c>
       <c r="F12">
-        <v>0.9733690013845964</v>
+        <v>1.044961657218132</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033699560591273</v>
+        <v>1.027748001153802</v>
       </c>
       <c r="J12">
-        <v>0.9977514497908633</v>
+        <v>1.024744422384244</v>
       </c>
       <c r="K12">
-        <v>1.008229506744461</v>
+        <v>1.027547197839387</v>
       </c>
       <c r="L12">
-        <v>0.9885419271039958</v>
+        <v>1.044972548289365</v>
       </c>
       <c r="M12">
-        <v>0.989024834486805</v>
+        <v>1.048540385468161</v>
       </c>
       <c r="N12">
-        <v>0.9991683712932571</v>
+        <v>1.026199677003858</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9667448342658913</v>
+        <v>1.01801626025142</v>
       </c>
       <c r="D13">
-        <v>0.9931700832360476</v>
+        <v>1.023926656802348</v>
       </c>
       <c r="E13">
-        <v>0.9732286060977425</v>
+        <v>1.041449048388869</v>
       </c>
       <c r="F13">
-        <v>0.9737427934909498</v>
+        <v>1.045034246373892</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033762581831324</v>
+        <v>1.027755344013186</v>
       </c>
       <c r="J13">
-        <v>0.9979284307563581</v>
+        <v>1.024777294310253</v>
       </c>
       <c r="K13">
-        <v>1.00838483583413</v>
+        <v>1.027574916587181</v>
       </c>
       <c r="L13">
-        <v>0.9888414994769059</v>
+        <v>1.045031190562054</v>
       </c>
       <c r="M13">
-        <v>0.9893451507167095</v>
+        <v>1.04860316268779</v>
       </c>
       <c r="N13">
-        <v>0.9993456035920231</v>
+        <v>1.026232595611772</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9676869212437089</v>
+        <v>1.01818625981087</v>
       </c>
       <c r="D14">
-        <v>0.9938357071322385</v>
+        <v>1.024049960092723</v>
       </c>
       <c r="E14">
-        <v>0.9743801658969081</v>
+        <v>1.041673441273597</v>
       </c>
       <c r="F14">
-        <v>0.9749633479224653</v>
+        <v>1.045272109170354</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033968052550041</v>
+        <v>1.027779355835607</v>
       </c>
       <c r="J14">
-        <v>0.9985062853905606</v>
+        <v>1.024884981097476</v>
       </c>
       <c r="K14">
-        <v>1.008891939714647</v>
+        <v>1.027665707960081</v>
       </c>
       <c r="L14">
-        <v>0.9898195942510936</v>
+        <v>1.045223336674062</v>
       </c>
       <c r="M14">
-        <v>0.9903909971499181</v>
+        <v>1.04880885943781</v>
       </c>
       <c r="N14">
-        <v>0.9999242788460869</v>
+        <v>1.026340435326585</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9682649726276791</v>
+        <v>1.018291000129042</v>
       </c>
       <c r="D15">
-        <v>0.9942442349396409</v>
+        <v>1.024125924002898</v>
       </c>
       <c r="E15">
-        <v>0.9750866829730568</v>
+        <v>1.041811710525936</v>
       </c>
       <c r="F15">
-        <v>0.9757121871841007</v>
+        <v>1.04541867891069</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034093871336464</v>
+        <v>1.027794113873062</v>
       </c>
       <c r="J15">
-        <v>0.9988607743355721</v>
+        <v>1.02495131477569</v>
       </c>
       <c r="K15">
-        <v>1.009202982659004</v>
+        <v>1.02772162366407</v>
       </c>
       <c r="L15">
-        <v>0.9904195959318907</v>
+        <v>1.045341724545501</v>
       </c>
       <c r="M15">
-        <v>0.9910325782067955</v>
+        <v>1.048935597971357</v>
       </c>
       <c r="N15">
-        <v>1.000279271206061</v>
+        <v>1.026406863206231</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9715936896441311</v>
+        <v>1.018900603390662</v>
       </c>
       <c r="D16">
-        <v>0.9965983374600301</v>
+        <v>1.024567954570446</v>
       </c>
       <c r="E16">
-        <v>0.9791543848592268</v>
+        <v>1.042616703686149</v>
       </c>
       <c r="F16">
-        <v>0.980023433547539</v>
+        <v>1.046272003366446</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034814486717685</v>
+        <v>1.027879455452593</v>
       </c>
       <c r="J16">
-        <v>1.000900943567698</v>
+        <v>1.025337165607779</v>
       </c>
       <c r="K16">
-        <v>1.010992423559556</v>
+        <v>1.028046712692596</v>
       </c>
       <c r="L16">
-        <v>0.9938726783540249</v>
+        <v>1.046030799512903</v>
       </c>
       <c r="M16">
-        <v>0.9947252180140971</v>
+        <v>1.049673302858718</v>
       </c>
       <c r="N16">
-        <v>1.002322337712507</v>
+        <v>1.026793261990759</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9736510704453922</v>
+        <v>1.019282964632765</v>
       </c>
       <c r="D17">
-        <v>0.9980546461843088</v>
+        <v>1.02484512928444</v>
       </c>
       <c r="E17">
-        <v>0.9816680090855775</v>
+        <v>1.043121838436676</v>
       </c>
       <c r="F17">
-        <v>0.982687450797321</v>
+        <v>1.046807471761122</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035256392872165</v>
+        <v>1.027932497555173</v>
       </c>
       <c r="J17">
-        <v>1.002160860805323</v>
+        <v>1.025578988359862</v>
       </c>
       <c r="K17">
-        <v>1.012096870692421</v>
+        <v>1.028250311108713</v>
       </c>
       <c r="L17">
-        <v>0.9960052850913932</v>
+        <v>1.046463045458004</v>
       </c>
       <c r="M17">
-        <v>0.9970059972549233</v>
+        <v>1.050136075497481</v>
       </c>
       <c r="N17">
-        <v>1.003584044177124</v>
+        <v>1.027035428158888</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9748404049316568</v>
+        <v>1.019505979912666</v>
       </c>
       <c r="D18">
-        <v>0.9988969493898234</v>
+        <v>1.025006764573513</v>
       </c>
       <c r="E18">
-        <v>0.9831209810692263</v>
+        <v>1.043416542044375</v>
       </c>
       <c r="F18">
-        <v>0.9842273188238208</v>
+        <v>1.047119874520397</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035510576623123</v>
+        <v>1.02796325929495</v>
       </c>
       <c r="J18">
-        <v>1.0028888052445</v>
+        <v>1.025719963321444</v>
       </c>
       <c r="K18">
-        <v>1.012734750126576</v>
+        <v>1.028368950702512</v>
       </c>
       <c r="L18">
-        <v>0.9972375709610392</v>
+        <v>1.046715170586795</v>
       </c>
       <c r="M18">
-        <v>0.9983239790973163</v>
+        <v>1.050406014416553</v>
       </c>
       <c r="N18">
-        <v>1.004313022380901</v>
+        <v>1.027176603321085</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9752441532747546</v>
+        <v>1.01958202074595</v>
       </c>
       <c r="D19">
-        <v>0.999182960727794</v>
+        <v>1.025061871897875</v>
       </c>
       <c r="E19">
-        <v>0.9836142156708452</v>
+        <v>1.043517039809122</v>
       </c>
       <c r="F19">
-        <v>0.9847500454746868</v>
+        <v>1.047226408267678</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035596647442593</v>
+        <v>1.027973718253492</v>
       </c>
       <c r="J19">
-        <v>1.003135856096321</v>
+        <v>1.025768019220923</v>
       </c>
       <c r="K19">
-        <v>1.012951193008676</v>
+        <v>1.028409384065945</v>
       </c>
       <c r="L19">
-        <v>0.9976558143971092</v>
+        <v>1.046801139380773</v>
       </c>
       <c r="M19">
-        <v>0.9987713209855629</v>
+        <v>1.050498058624534</v>
       </c>
       <c r="N19">
-        <v>1.004560424073269</v>
+        <v>1.027224727465453</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9734314472601159</v>
+        <v>1.019241941881136</v>
       </c>
       <c r="D20">
-        <v>0.9978991406417768</v>
+        <v>1.024815394782827</v>
       </c>
       <c r="E20">
-        <v>0.9813996952498663</v>
+        <v>1.043067635340741</v>
       </c>
       <c r="F20">
-        <v>0.9824030872858888</v>
+        <v>1.046750013527152</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03520935166816</v>
+        <v>1.027926824927119</v>
       </c>
       <c r="J20">
-        <v>1.002026406278146</v>
+        <v>1.02555305094412</v>
       </c>
       <c r="K20">
-        <v>1.01197903199357</v>
+        <v>1.028228478912854</v>
       </c>
       <c r="L20">
-        <v>0.9957776883950121</v>
+        <v>1.046416669224632</v>
       </c>
       <c r="M20">
-        <v>0.9967625791551734</v>
+        <v>1.05008642320243</v>
       </c>
       <c r="N20">
-        <v>1.003449398709096</v>
+        <v>1.027009453909039</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9674100020487598</v>
+        <v>1.018136199599272</v>
       </c>
       <c r="D21">
-        <v>0.9936400288988292</v>
+        <v>1.024013651869971</v>
       </c>
       <c r="E21">
-        <v>0.9740416875719101</v>
+        <v>1.041607360376953</v>
       </c>
       <c r="F21">
-        <v>0.9746045916851886</v>
+        <v>1.045202061464204</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033907709171896</v>
+        <v>1.02777229254299</v>
       </c>
       <c r="J21">
-        <v>0.9983364449746274</v>
+        <v>1.024853273294406</v>
       </c>
       <c r="K21">
-        <v>1.00874290304473</v>
+        <v>1.027638977133114</v>
       </c>
       <c r="L21">
-        <v>0.989532121163034</v>
+        <v>1.045166754372526</v>
       </c>
       <c r="M21">
-        <v>0.9900836073395805</v>
+        <v>1.048748286463904</v>
       </c>
       <c r="N21">
-        <v>0.9997541972372819</v>
+        <v>1.026308682494798</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9635201804785714</v>
+        <v>1.017440887513628</v>
       </c>
       <c r="D22">
-        <v>0.9908934591463735</v>
+        <v>1.023509244277686</v>
       </c>
       <c r="E22">
-        <v>0.9692858158062621</v>
+        <v>1.040689814243765</v>
       </c>
       <c r="F22">
-        <v>0.9695636512340443</v>
+        <v>1.044229443079817</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033055510849294</v>
+        <v>1.027673540685237</v>
       </c>
       <c r="J22">
-        <v>0.9959494163691488</v>
+        <v>1.024412609532611</v>
       </c>
       <c r="K22">
-        <v>1.006647503028503</v>
+        <v>1.027267292020311</v>
       </c>
       <c r="L22">
-        <v>0.9854913097481258</v>
+        <v>1.044380898623717</v>
       </c>
       <c r="M22">
-        <v>0.9857631709537999</v>
+        <v>1.047907034897834</v>
       </c>
       <c r="N22">
-        <v>0.9973637787773875</v>
+        <v>1.025867392939916</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9655924795329127</v>
+        <v>1.017809494040823</v>
       </c>
       <c r="D23">
-        <v>0.9923562036310658</v>
+        <v>1.023776670396219</v>
       </c>
       <c r="E23">
-        <v>0.9718198339605862</v>
+        <v>1.041176168041377</v>
       </c>
       <c r="F23">
-        <v>0.9722495938570901</v>
+        <v>1.044744986651435</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033510564114189</v>
+        <v>1.027726041657036</v>
       </c>
       <c r="J23">
-        <v>0.9972214034747953</v>
+        <v>1.02464627871904</v>
       </c>
       <c r="K23">
-        <v>1.007764259697908</v>
+        <v>1.027464427982425</v>
       </c>
       <c r="L23">
-        <v>0.9876446967565429</v>
+        <v>1.044797494906605</v>
       </c>
       <c r="M23">
-        <v>0.9880654958198931</v>
+        <v>1.048352990655702</v>
       </c>
       <c r="N23">
-        <v>0.9986375722506233</v>
+        <v>1.026101393963392</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9735307185142301</v>
+        <v>1.019260478326146</v>
       </c>
       <c r="D24">
-        <v>0.9979694289124001</v>
+        <v>1.024828830635521</v>
       </c>
       <c r="E24">
-        <v>0.9815209753464612</v>
+        <v>1.043092127178825</v>
       </c>
       <c r="F24">
-        <v>0.9825316220844919</v>
+        <v>1.046775976203272</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035230618586842</v>
+        <v>1.027929388689898</v>
       </c>
       <c r="J24">
-        <v>1.002087181903707</v>
+        <v>1.025564771181037</v>
       </c>
       <c r="K24">
-        <v>1.012032297739074</v>
+        <v>1.028238344300518</v>
       </c>
       <c r="L24">
-        <v>0.9958805653807493</v>
+        <v>1.046437624637232</v>
       </c>
       <c r="M24">
-        <v>0.9968726074039419</v>
+        <v>1.050108858901287</v>
       </c>
       <c r="N24">
-        <v>1.003510260643017</v>
+        <v>1.027021190790038</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9823259037502642</v>
+        <v>1.020943890509928</v>
       </c>
       <c r="D25">
-        <v>1.004205111689178</v>
+        <v>1.026048388017325</v>
       </c>
       <c r="E25">
-        <v>0.9922658334537736</v>
+        <v>1.045318130411283</v>
       </c>
       <c r="F25">
-        <v>0.9939184481612373</v>
+        <v>1.049135703511504</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037087162361951</v>
+        <v>1.028158424283765</v>
       </c>
       <c r="J25">
-        <v>1.007463071143932</v>
+        <v>1.026627642734657</v>
       </c>
       <c r="K25">
-        <v>1.016738497570554</v>
+        <v>1.029131882550441</v>
       </c>
       <c r="L25">
-        <v>1.004985410749796</v>
+        <v>1.048341044320153</v>
       </c>
       <c r="M25">
-        <v>1.006611911752166</v>
+        <v>1.05214690392385</v>
       </c>
       <c r="N25">
-        <v>1.008893784262586</v>
+        <v>1.028085571743176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_206/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_206/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022286283269705</v>
+        <v>0.9890398387423274</v>
       </c>
       <c r="D2">
-        <v>1.027019936693963</v>
+        <v>1.008974957015197</v>
       </c>
       <c r="E2">
-        <v>1.047095805259104</v>
+        <v>1.00047235929114</v>
       </c>
       <c r="F2">
-        <v>1.051020231627633</v>
+        <v>1.00261422087495</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028335497973462</v>
+        <v>1.038462991790702</v>
       </c>
       <c r="J2">
-        <v>1.027472974458237</v>
+        <v>1.011553382235271</v>
       </c>
       <c r="K2">
-        <v>1.029840884956849</v>
+        <v>1.020310656602164</v>
       </c>
       <c r="L2">
-        <v>1.04985940014644</v>
+        <v>1.011925117318532</v>
       </c>
       <c r="M2">
-        <v>1.053772892728296</v>
+        <v>1.014037255201529</v>
       </c>
       <c r="N2">
-        <v>1.028932103934765</v>
+        <v>1.012989904064828</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023260816035162</v>
+        <v>0.9937555501436982</v>
       </c>
       <c r="D3">
-        <v>1.027724678571712</v>
+        <v>1.012329249437677</v>
       </c>
       <c r="E3">
-        <v>1.048387890737887</v>
+        <v>1.006241988421584</v>
       </c>
       <c r="F3">
-        <v>1.052390017255731</v>
+        <v>1.008727227873971</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028460813560444</v>
+        <v>1.039404418128609</v>
       </c>
       <c r="J3">
-        <v>1.028085360982689</v>
+        <v>1.014417904882861</v>
       </c>
       <c r="K3">
-        <v>1.030353542333091</v>
+        <v>1.022806768764963</v>
       </c>
       <c r="L3">
-        <v>1.05096201487684</v>
+        <v>1.016795620015597</v>
       </c>
       <c r="M3">
-        <v>1.054953807404114</v>
+        <v>1.019249646863646</v>
       </c>
       <c r="N3">
-        <v>1.029545360118324</v>
+        <v>1.015858494663155</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023891330244021</v>
+        <v>0.9967378755453863</v>
       </c>
       <c r="D4">
-        <v>1.028180371058632</v>
+        <v>1.014451978392763</v>
       </c>
       <c r="E4">
-        <v>1.049224590461323</v>
+        <v>1.009894323293211</v>
       </c>
       <c r="F4">
-        <v>1.053277048115614</v>
+        <v>1.012596665157735</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028540392876332</v>
+        <v>1.039987944177455</v>
       </c>
       <c r="J4">
-        <v>1.028480968289222</v>
+        <v>1.016225396505383</v>
       </c>
       <c r="K4">
-        <v>1.030684272980284</v>
+        <v>1.024379054553265</v>
       </c>
       <c r="L4">
-        <v>1.051675565217991</v>
+        <v>1.019874781447312</v>
       </c>
       <c r="M4">
-        <v>1.055718092020004</v>
+        <v>1.022545400113654</v>
       </c>
       <c r="N4">
-        <v>1.029941529232608</v>
+        <v>1.017668553131102</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0241563807752</v>
+        <v>0.9979757515710457</v>
       </c>
       <c r="D5">
-        <v>1.028371866119829</v>
+        <v>1.015333327357078</v>
       </c>
       <c r="E5">
-        <v>1.049576492789192</v>
+        <v>1.011411265058486</v>
       </c>
       <c r="F5">
-        <v>1.053650122639757</v>
+        <v>1.014203714400133</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028573486607616</v>
+        <v>1.040227256725788</v>
       </c>
       <c r="J5">
-        <v>1.028647126295204</v>
+        <v>1.016974619769339</v>
       </c>
       <c r="K5">
-        <v>1.03082307392949</v>
+        <v>1.025030098428153</v>
       </c>
       <c r="L5">
-        <v>1.051975563811129</v>
+        <v>1.021152693519623</v>
       </c>
       <c r="M5">
-        <v>1.056039435805985</v>
+        <v>1.023913303802073</v>
       </c>
       <c r="N5">
-        <v>1.030107923202018</v>
+        <v>1.018418840378031</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024200882890864</v>
+        <v>0.998182682275257</v>
       </c>
       <c r="D6">
-        <v>1.028404014381753</v>
+        <v>1.015480672579183</v>
       </c>
       <c r="E6">
-        <v>1.049635587812918</v>
+        <v>1.011664906331263</v>
       </c>
       <c r="F6">
-        <v>1.053712773332035</v>
+        <v>1.01447241849353</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028579021987506</v>
+        <v>1.04026709022053</v>
       </c>
       <c r="J6">
-        <v>1.028675015841345</v>
+        <v>1.017099803915983</v>
       </c>
       <c r="K6">
-        <v>1.030846365236</v>
+        <v>1.025138837252703</v>
       </c>
       <c r="L6">
-        <v>1.052025936236587</v>
+        <v>1.021366310300316</v>
       </c>
       <c r="M6">
-        <v>1.056093393150775</v>
+        <v>1.024141969477919</v>
       </c>
       <c r="N6">
-        <v>1.030135852354514</v>
+        <v>1.018544202300522</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023894871931527</v>
+        <v>0.9967544777379589</v>
       </c>
       <c r="D7">
-        <v>1.028182930132784</v>
+        <v>1.014463797938898</v>
       </c>
       <c r="E7">
-        <v>1.04922929199078</v>
+        <v>1.009914664295231</v>
       </c>
       <c r="F7">
-        <v>1.053282032497876</v>
+        <v>1.012618214677114</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02854083649692</v>
+        <v>1.039991165291333</v>
       </c>
       <c r="J7">
-        <v>1.028483189111185</v>
+        <v>1.016235449011862</v>
       </c>
       <c r="K7">
-        <v>1.030686128582023</v>
+        <v>1.024387792503916</v>
       </c>
       <c r="L7">
-        <v>1.051679573725171</v>
+        <v>1.019891921097683</v>
       </c>
       <c r="M7">
-        <v>1.055722385677859</v>
+        <v>1.022563746357165</v>
       </c>
       <c r="N7">
-        <v>1.029943753208394</v>
+        <v>1.017678619913294</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022615646426624</v>
+        <v>0.9906482301100549</v>
       </c>
       <c r="D8">
-        <v>1.027258173822297</v>
+        <v>1.010118671957137</v>
       </c>
       <c r="E8">
-        <v>1.047532341507748</v>
+        <v>1.00243955920145</v>
       </c>
       <c r="F8">
-        <v>1.051483015879425</v>
+        <v>1.00469855442688</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028378161054483</v>
+        <v>1.038786544898592</v>
       </c>
       <c r="J8">
-        <v>1.02768006732399</v>
+        <v>1.012531229516907</v>
       </c>
       <c r="K8">
-        <v>1.030014345216514</v>
+        <v>1.021163301892928</v>
       </c>
       <c r="L8">
-        <v>1.050232017409247</v>
+        <v>1.01358658620248</v>
       </c>
       <c r="M8">
-        <v>1.054171957537409</v>
+        <v>1.015815254742254</v>
       </c>
       <c r="N8">
-        <v>1.029139490896141</v>
+        <v>1.013969140001776</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02036092330407</v>
+        <v>0.9793286579481032</v>
       </c>
       <c r="D9">
-        <v>1.025626199846617</v>
+        <v>1.00207833207531</v>
       </c>
       <c r="E9">
-        <v>1.044546865271486</v>
+        <v>0.9886039480200352</v>
       </c>
       <c r="F9">
-        <v>1.048318095975707</v>
+        <v>0.990037950353538</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028079969387427</v>
+        <v>1.036460899239563</v>
       </c>
       <c r="J9">
-        <v>1.026259913415641</v>
+        <v>1.005633102549071</v>
       </c>
       <c r="K9">
-        <v>1.028822993849234</v>
+        <v>1.015137779548803</v>
       </c>
       <c r="L9">
-        <v>1.047681811851747</v>
+        <v>1.001884664402845</v>
       </c>
       <c r="M9">
-        <v>1.051441007289564</v>
+        <v>1.003294749484525</v>
       </c>
       <c r="N9">
-        <v>1.027717320206349</v>
+        <v>1.00706121690242</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01885739159081</v>
+        <v>0.9713597137295583</v>
       </c>
       <c r="D10">
-        <v>1.02453662630092</v>
+        <v>0.9964327806605542</v>
       </c>
       <c r="E10">
-        <v>1.042559627613019</v>
+        <v>0.9788685026363363</v>
       </c>
       <c r="F10">
-        <v>1.046211500115966</v>
+        <v>0.9797204415724331</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027873437265552</v>
+        <v>1.034764058448944</v>
       </c>
       <c r="J10">
-        <v>1.025309827006338</v>
+        <v>1.00075760689368</v>
       </c>
       <c r="K10">
-        <v>1.02802368843607</v>
+        <v>1.010866742443588</v>
       </c>
       <c r="L10">
-        <v>1.04598195196852</v>
+        <v>0.9936300703514144</v>
       </c>
       <c r="M10">
-        <v>1.049621006598129</v>
+        <v>0.9944657644917901</v>
       </c>
       <c r="N10">
-        <v>1.026765884565368</v>
+        <v>1.002178797483971</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.018206253128339</v>
+        <v>0.9677974025523252</v>
       </c>
       <c r="D11">
-        <v>1.02406446078173</v>
+        <v>0.9939137814365521</v>
       </c>
       <c r="E11">
-        <v>1.041699833800765</v>
+        <v>0.9745152041062554</v>
       </c>
       <c r="F11">
-        <v>1.045300086051041</v>
+        <v>0.9751064757456238</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027782175051219</v>
+        <v>1.033992115052023</v>
       </c>
       <c r="J11">
-        <v>1.024897644028609</v>
+        <v>0.9985740422810163</v>
       </c>
       <c r="K11">
-        <v>1.027676382752925</v>
+        <v>1.008951394943669</v>
       </c>
       <c r="L11">
-        <v>1.045245934945507</v>
+        <v>0.9899342792211598</v>
       </c>
       <c r="M11">
-        <v>1.048833051614521</v>
+        <v>0.9905136285982479</v>
       </c>
       <c r="N11">
-        <v>1.026353116240532</v>
+        <v>0.9999921319590991</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017964376120332</v>
+        <v>0.9664563471625185</v>
       </c>
       <c r="D12">
-        <v>1.02388902211892</v>
+        <v>0.9929663000100448</v>
       </c>
       <c r="E12">
-        <v>1.041380569717146</v>
+        <v>0.9728759465342274</v>
       </c>
       <c r="F12">
-        <v>1.044961657218132</v>
+        <v>0.973369001384597</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027748001153802</v>
+        <v>1.033699560591273</v>
       </c>
       <c r="J12">
-        <v>1.024744422384244</v>
+        <v>0.9977514497908637</v>
       </c>
       <c r="K12">
-        <v>1.027547197839387</v>
+        <v>1.008229506744462</v>
       </c>
       <c r="L12">
-        <v>1.044972548289365</v>
+        <v>0.9885419271039964</v>
       </c>
       <c r="M12">
-        <v>1.048540385468161</v>
+        <v>0.9890248344868057</v>
       </c>
       <c r="N12">
-        <v>1.026199677003858</v>
+        <v>0.9991683712932576</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01801626025142</v>
+        <v>0.9667448342658915</v>
       </c>
       <c r="D13">
-        <v>1.023926656802348</v>
+        <v>0.9931700832360477</v>
       </c>
       <c r="E13">
-        <v>1.041449048388869</v>
+        <v>0.9732286060977429</v>
       </c>
       <c r="F13">
-        <v>1.045034246373892</v>
+        <v>0.9737427934909502</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027755344013186</v>
+        <v>1.033762581831324</v>
       </c>
       <c r="J13">
-        <v>1.024777294310253</v>
+        <v>0.9979284307563583</v>
       </c>
       <c r="K13">
-        <v>1.027574916587181</v>
+        <v>1.00838483583413</v>
       </c>
       <c r="L13">
-        <v>1.045031190562054</v>
+        <v>0.9888414994769061</v>
       </c>
       <c r="M13">
-        <v>1.04860316268779</v>
+        <v>0.98934515071671</v>
       </c>
       <c r="N13">
-        <v>1.026232595611772</v>
+        <v>0.9993456035920233</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01818625981087</v>
+        <v>0.9676869212437089</v>
       </c>
       <c r="D14">
-        <v>1.024049960092723</v>
+        <v>0.9938357071322385</v>
       </c>
       <c r="E14">
-        <v>1.041673441273597</v>
+        <v>0.9743801658969085</v>
       </c>
       <c r="F14">
-        <v>1.045272109170354</v>
+        <v>0.9749633479224655</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027779355835607</v>
+        <v>1.033968052550041</v>
       </c>
       <c r="J14">
-        <v>1.024884981097476</v>
+        <v>0.9985062853905609</v>
       </c>
       <c r="K14">
-        <v>1.027665707960081</v>
+        <v>1.008891939714647</v>
       </c>
       <c r="L14">
-        <v>1.045223336674062</v>
+        <v>0.9898195942510938</v>
       </c>
       <c r="M14">
-        <v>1.04880885943781</v>
+        <v>0.9903909971499185</v>
       </c>
       <c r="N14">
-        <v>1.026340435326585</v>
+        <v>0.9999242788460871</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.018291000129042</v>
+        <v>0.9682649726276787</v>
       </c>
       <c r="D15">
-        <v>1.024125924002898</v>
+        <v>0.9942442349396403</v>
       </c>
       <c r="E15">
-        <v>1.041811710525936</v>
+        <v>0.9750866829730579</v>
       </c>
       <c r="F15">
-        <v>1.04541867891069</v>
+        <v>0.9757121871841017</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027794113873062</v>
+        <v>1.034093871336464</v>
       </c>
       <c r="J15">
-        <v>1.02495131477569</v>
+        <v>0.9988607743355717</v>
       </c>
       <c r="K15">
-        <v>1.02772162366407</v>
+        <v>1.009202982659003</v>
       </c>
       <c r="L15">
-        <v>1.045341724545501</v>
+        <v>0.9904195959318915</v>
       </c>
       <c r="M15">
-        <v>1.048935597971357</v>
+        <v>0.9910325782067964</v>
       </c>
       <c r="N15">
-        <v>1.026406863206231</v>
+        <v>1.00027927120606</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018900603390662</v>
+        <v>0.9715936896441312</v>
       </c>
       <c r="D16">
-        <v>1.024567954570446</v>
+        <v>0.99659833746003</v>
       </c>
       <c r="E16">
-        <v>1.042616703686149</v>
+        <v>0.9791543848592278</v>
       </c>
       <c r="F16">
-        <v>1.046272003366446</v>
+        <v>0.98002343354754</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027879455452593</v>
+        <v>1.034814486717685</v>
       </c>
       <c r="J16">
-        <v>1.025337165607779</v>
+        <v>1.000900943567698</v>
       </c>
       <c r="K16">
-        <v>1.028046712692596</v>
+        <v>1.010992423559556</v>
       </c>
       <c r="L16">
-        <v>1.046030799512903</v>
+        <v>0.9938726783540259</v>
       </c>
       <c r="M16">
-        <v>1.049673302858718</v>
+        <v>0.9947252180140981</v>
       </c>
       <c r="N16">
-        <v>1.026793261990759</v>
+        <v>1.002322337712507</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019282964632765</v>
+        <v>0.9736510704453911</v>
       </c>
       <c r="D17">
-        <v>1.02484512928444</v>
+        <v>0.9980546461843079</v>
       </c>
       <c r="E17">
-        <v>1.043121838436676</v>
+        <v>0.9816680090855773</v>
       </c>
       <c r="F17">
-        <v>1.046807471761122</v>
+        <v>0.9826874507973206</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027932497555173</v>
+        <v>1.035256392872165</v>
       </c>
       <c r="J17">
-        <v>1.025578988359862</v>
+        <v>1.002160860805322</v>
       </c>
       <c r="K17">
-        <v>1.028250311108713</v>
+        <v>1.01209687069242</v>
       </c>
       <c r="L17">
-        <v>1.046463045458004</v>
+        <v>0.9960052850913929</v>
       </c>
       <c r="M17">
-        <v>1.050136075497481</v>
+        <v>0.9970059972549228</v>
       </c>
       <c r="N17">
-        <v>1.027035428158888</v>
+        <v>1.003584044177123</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019505979912666</v>
+        <v>0.9748404049316566</v>
       </c>
       <c r="D18">
-        <v>1.025006764573513</v>
+        <v>0.998896949389823</v>
       </c>
       <c r="E18">
-        <v>1.043416542044375</v>
+        <v>0.9831209810692256</v>
       </c>
       <c r="F18">
-        <v>1.047119874520397</v>
+        <v>0.98422731882382</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02796325929495</v>
+        <v>1.035510576623123</v>
       </c>
       <c r="J18">
-        <v>1.025719963321444</v>
+        <v>1.0028888052445</v>
       </c>
       <c r="K18">
-        <v>1.028368950702512</v>
+        <v>1.012734750126575</v>
       </c>
       <c r="L18">
-        <v>1.046715170586795</v>
+        <v>0.9972375709610386</v>
       </c>
       <c r="M18">
-        <v>1.050406014416553</v>
+        <v>0.9983239790973157</v>
       </c>
       <c r="N18">
-        <v>1.027176603321085</v>
+        <v>1.004313022380901</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01958202074595</v>
+        <v>0.9752441532747544</v>
       </c>
       <c r="D19">
-        <v>1.025061871897875</v>
+        <v>0.9991829607277941</v>
       </c>
       <c r="E19">
-        <v>1.043517039809122</v>
+        <v>0.9836142156708458</v>
       </c>
       <c r="F19">
-        <v>1.047226408267678</v>
+        <v>0.9847500454746875</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027973718253492</v>
+        <v>1.035596647442594</v>
       </c>
       <c r="J19">
-        <v>1.025768019220923</v>
+        <v>1.003135856096321</v>
       </c>
       <c r="K19">
-        <v>1.028409384065945</v>
+        <v>1.012951193008676</v>
       </c>
       <c r="L19">
-        <v>1.046801139380773</v>
+        <v>0.9976558143971102</v>
       </c>
       <c r="M19">
-        <v>1.050498058624534</v>
+        <v>0.9987713209855638</v>
       </c>
       <c r="N19">
-        <v>1.027224727465453</v>
+        <v>1.004560424073269</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019241941881136</v>
+        <v>0.9734314472601169</v>
       </c>
       <c r="D20">
-        <v>1.024815394782827</v>
+        <v>0.9978991406417776</v>
       </c>
       <c r="E20">
-        <v>1.043067635340741</v>
+        <v>0.9813996952498667</v>
       </c>
       <c r="F20">
-        <v>1.046750013527152</v>
+        <v>0.9824030872858893</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027926824927119</v>
+        <v>1.03520935166816</v>
       </c>
       <c r="J20">
-        <v>1.02555305094412</v>
+        <v>1.002026406278147</v>
       </c>
       <c r="K20">
-        <v>1.028228478912854</v>
+        <v>1.011979031993571</v>
       </c>
       <c r="L20">
-        <v>1.046416669224632</v>
+        <v>0.9957776883950126</v>
       </c>
       <c r="M20">
-        <v>1.05008642320243</v>
+        <v>0.9967625791551741</v>
       </c>
       <c r="N20">
-        <v>1.027009453909039</v>
+        <v>1.003449398709097</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018136199599272</v>
+        <v>0.9674100020487597</v>
       </c>
       <c r="D21">
-        <v>1.024013651869971</v>
+        <v>0.9936400288988292</v>
       </c>
       <c r="E21">
-        <v>1.041607360376953</v>
+        <v>0.9740416875719101</v>
       </c>
       <c r="F21">
-        <v>1.045202061464204</v>
+        <v>0.9746045916851888</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02777229254299</v>
+        <v>1.033907709171896</v>
       </c>
       <c r="J21">
-        <v>1.024853273294406</v>
+        <v>0.9983364449746274</v>
       </c>
       <c r="K21">
-        <v>1.027638977133114</v>
+        <v>1.00874290304473</v>
       </c>
       <c r="L21">
-        <v>1.045166754372526</v>
+        <v>0.989532121163034</v>
       </c>
       <c r="M21">
-        <v>1.048748286463904</v>
+        <v>0.9900836073395805</v>
       </c>
       <c r="N21">
-        <v>1.026308682494798</v>
+        <v>0.999754197237282</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017440887513628</v>
+        <v>0.9635201804785709</v>
       </c>
       <c r="D22">
-        <v>1.023509244277686</v>
+        <v>0.9908934591463736</v>
       </c>
       <c r="E22">
-        <v>1.040689814243765</v>
+        <v>0.9692858158062621</v>
       </c>
       <c r="F22">
-        <v>1.044229443079817</v>
+        <v>0.9695636512340444</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027673540685237</v>
+        <v>1.033055510849294</v>
       </c>
       <c r="J22">
-        <v>1.024412609532611</v>
+        <v>0.9959494163691485</v>
       </c>
       <c r="K22">
-        <v>1.027267292020311</v>
+        <v>1.006647503028503</v>
       </c>
       <c r="L22">
-        <v>1.044380898623717</v>
+        <v>0.9854913097481258</v>
       </c>
       <c r="M22">
-        <v>1.047907034897834</v>
+        <v>0.9857631709538001</v>
       </c>
       <c r="N22">
-        <v>1.025867392939916</v>
+        <v>0.9973637787773874</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017809494040823</v>
+        <v>0.9655924795329133</v>
       </c>
       <c r="D23">
-        <v>1.023776670396219</v>
+        <v>0.9923562036310664</v>
       </c>
       <c r="E23">
-        <v>1.041176168041377</v>
+        <v>0.9718198339605871</v>
       </c>
       <c r="F23">
-        <v>1.044744986651435</v>
+        <v>0.9722495938570909</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027726041657036</v>
+        <v>1.033510564114189</v>
       </c>
       <c r="J23">
-        <v>1.02464627871904</v>
+        <v>0.9972214034747956</v>
       </c>
       <c r="K23">
-        <v>1.027464427982425</v>
+        <v>1.007764259697908</v>
       </c>
       <c r="L23">
-        <v>1.044797494906605</v>
+        <v>0.9876446967565435</v>
       </c>
       <c r="M23">
-        <v>1.048352990655702</v>
+        <v>0.9880654958198938</v>
       </c>
       <c r="N23">
-        <v>1.026101393963392</v>
+        <v>0.9986375722506238</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019260478326146</v>
+        <v>0.9735307185142301</v>
       </c>
       <c r="D24">
-        <v>1.024828830635521</v>
+        <v>0.9979694289124003</v>
       </c>
       <c r="E24">
-        <v>1.043092127178825</v>
+        <v>0.9815209753464617</v>
       </c>
       <c r="F24">
-        <v>1.046775976203272</v>
+        <v>0.9825316220844922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027929388689898</v>
+        <v>1.035230618586842</v>
       </c>
       <c r="J24">
-        <v>1.025564771181037</v>
+        <v>1.002087181903708</v>
       </c>
       <c r="K24">
-        <v>1.028238344300518</v>
+        <v>1.012032297739074</v>
       </c>
       <c r="L24">
-        <v>1.046437624637232</v>
+        <v>0.9958805653807498</v>
       </c>
       <c r="M24">
-        <v>1.050108858901287</v>
+        <v>0.9968726074039423</v>
       </c>
       <c r="N24">
-        <v>1.027021190790038</v>
+        <v>1.003510260643017</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.020943890509928</v>
+        <v>0.982325903750266</v>
       </c>
       <c r="D25">
-        <v>1.026048388017325</v>
+        <v>1.004205111689179</v>
       </c>
       <c r="E25">
-        <v>1.045318130411283</v>
+        <v>0.9922658334537746</v>
       </c>
       <c r="F25">
-        <v>1.049135703511504</v>
+        <v>0.9939184481612384</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028158424283765</v>
+        <v>1.037087162361952</v>
       </c>
       <c r="J25">
-        <v>1.026627642734657</v>
+        <v>1.007463071143934</v>
       </c>
       <c r="K25">
-        <v>1.029131882550441</v>
+        <v>1.016738497570556</v>
       </c>
       <c r="L25">
-        <v>1.048341044320153</v>
+        <v>1.004985410749797</v>
       </c>
       <c r="M25">
-        <v>1.05214690392385</v>
+        <v>1.006611911752167</v>
       </c>
       <c r="N25">
-        <v>1.028085571743176</v>
+        <v>1.008893784262588</v>
       </c>
     </row>
   </sheetData>
